--- a/natmiOut/YoungD0/LR-pairs_lrc2p/App-Gpc1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/App-Gpc1.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H2">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J2">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.945699131313935</v>
+        <v>2.127396333333333</v>
       </c>
       <c r="N2">
-        <v>0.945699131313935</v>
+        <v>6.382189</v>
       </c>
       <c r="O2">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="P2">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="Q2">
-        <v>93.88566831082954</v>
+        <v>222.9400753997964</v>
       </c>
       <c r="R2">
-        <v>93.88566831082954</v>
+        <v>2006.460678598167</v>
       </c>
       <c r="S2">
-        <v>0.01445290118752293</v>
+        <v>0.02376758438990295</v>
       </c>
       <c r="T2">
-        <v>0.01445290118752293</v>
+        <v>0.02376758438990295</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H3">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J3">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.71080414568221</v>
+        <v>3.721182333333333</v>
       </c>
       <c r="N3">
-        <v>3.71080414568221</v>
+        <v>11.163547</v>
       </c>
       <c r="O3">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="P3">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="Q3">
-        <v>368.3955241704868</v>
+        <v>389.9605621063823</v>
       </c>
       <c r="R3">
-        <v>368.3955241704868</v>
+        <v>3509.645058957441</v>
       </c>
       <c r="S3">
-        <v>0.05671136185700029</v>
+        <v>0.04157359573856994</v>
       </c>
       <c r="T3">
-        <v>0.05671136185700029</v>
+        <v>0.04157359573856993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>99.27646669230489</v>
+        <v>104.794801</v>
       </c>
       <c r="H4">
-        <v>99.27646669230489</v>
+        <v>314.384403</v>
       </c>
       <c r="I4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="J4">
-        <v>0.3762743527532166</v>
+        <v>0.3872421191355361</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>19.9643201768877</v>
+        <v>28.81280933333333</v>
       </c>
       <c r="N4">
-        <v>19.9643201768877</v>
+        <v>86.43842799999999</v>
       </c>
       <c r="O4">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980773</v>
       </c>
       <c r="P4">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980772</v>
       </c>
       <c r="Q4">
-        <v>1981.987167075302</v>
+        <v>3019.432620337609</v>
       </c>
       <c r="R4">
-        <v>1981.987167075302</v>
+        <v>27174.89358303848</v>
       </c>
       <c r="S4">
-        <v>0.3051100897086934</v>
+        <v>0.3219009390070632</v>
       </c>
       <c r="T4">
-        <v>0.3051100897086934</v>
+        <v>0.3219009390070632</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H5">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J5">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.945699131313935</v>
+        <v>2.127396333333333</v>
       </c>
       <c r="N5">
-        <v>0.945699131313935</v>
+        <v>6.382189</v>
       </c>
       <c r="O5">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="P5">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="Q5">
-        <v>128.9182508989324</v>
+        <v>290.7607152807647</v>
       </c>
       <c r="R5">
-        <v>128.9182508989324</v>
+        <v>2616.846437526882</v>
       </c>
       <c r="S5">
-        <v>0.01984586971615174</v>
+        <v>0.03099792545288801</v>
       </c>
       <c r="T5">
-        <v>0.01984586971615174</v>
+        <v>0.03099792545288801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H6">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J6">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.71080414568221</v>
+        <v>3.721182333333333</v>
       </c>
       <c r="N6">
-        <v>3.71080414568221</v>
+        <v>11.163547</v>
       </c>
       <c r="O6">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="P6">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="Q6">
-        <v>505.858960899321</v>
+        <v>508.5905338733206</v>
       </c>
       <c r="R6">
-        <v>505.858960899321</v>
+        <v>4577.314804859885</v>
       </c>
       <c r="S6">
-        <v>0.07787269035030753</v>
+        <v>0.05422070667224232</v>
       </c>
       <c r="T6">
-        <v>0.07787269035030753</v>
+        <v>0.05422070667224232</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>136.320576629711</v>
+        <v>136.674446</v>
       </c>
       <c r="H7">
-        <v>136.320576629711</v>
+        <v>410.023338</v>
       </c>
       <c r="I7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="J7">
-        <v>0.5166777026550409</v>
+        <v>0.5050451128841343</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.9643201768877</v>
+        <v>28.81280933333333</v>
       </c>
       <c r="N7">
-        <v>19.9643201768877</v>
+        <v>86.43842799999999</v>
       </c>
       <c r="O7">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980773</v>
       </c>
       <c r="P7">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980772</v>
       </c>
       <c r="Q7">
-        <v>2721.547638533506</v>
+        <v>3937.974753336962</v>
       </c>
       <c r="R7">
-        <v>2721.547638533506</v>
+        <v>35441.77278003265</v>
       </c>
       <c r="S7">
-        <v>0.4189591425885816</v>
+        <v>0.419826480759004</v>
       </c>
       <c r="T7">
-        <v>0.4189591425885816</v>
+        <v>0.419826480759004</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H8">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J8">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.945699131313935</v>
+        <v>2.127396333333333</v>
       </c>
       <c r="N8">
-        <v>0.945699131313935</v>
+        <v>6.382189</v>
       </c>
       <c r="O8">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="P8">
-        <v>0.03841054029266249</v>
+        <v>0.06137654768277986</v>
       </c>
       <c r="Q8">
-        <v>26.70994646793791</v>
+        <v>62.01157216230045</v>
       </c>
       <c r="R8">
-        <v>26.70994646793791</v>
+        <v>558.104149460704</v>
       </c>
       <c r="S8">
-        <v>0.004111769388987829</v>
+        <v>0.006611037839988902</v>
       </c>
       <c r="T8">
-        <v>0.004111769388987829</v>
+        <v>0.006611037839988902</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H9">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J9">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.71080414568221</v>
+        <v>3.721182333333333</v>
       </c>
       <c r="N9">
-        <v>3.71080414568221</v>
+        <v>11.163547</v>
       </c>
       <c r="O9">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="P9">
-        <v>0.1507181168263015</v>
+        <v>0.1073581454191429</v>
       </c>
       <c r="Q9">
-        <v>104.8064620155303</v>
+        <v>108.4689125279324</v>
       </c>
       <c r="R9">
-        <v>104.8064620155303</v>
+        <v>976.220212751392</v>
       </c>
       <c r="S9">
-        <v>0.01613406461899371</v>
+        <v>0.01156384300833062</v>
       </c>
       <c r="T9">
-        <v>0.01613406461899371</v>
+        <v>0.01156384300833062</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>28.2435983956416</v>
+        <v>29.14904533333333</v>
       </c>
       <c r="H10">
-        <v>28.2435983956416</v>
+        <v>87.447136</v>
       </c>
       <c r="I10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="J10">
-        <v>0.1070479445917426</v>
+        <v>0.1077127679803296</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>19.9643201768877</v>
+        <v>28.81280933333333</v>
       </c>
       <c r="N10">
-        <v>19.9643201768877</v>
+        <v>86.43842799999999</v>
       </c>
       <c r="O10">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980773</v>
       </c>
       <c r="P10">
-        <v>0.810871342881036</v>
+        <v>0.8312653068980772</v>
       </c>
       <c r="Q10">
-        <v>563.8642413180207</v>
+        <v>839.865885438023</v>
       </c>
       <c r="R10">
-        <v>563.8642413180207</v>
+        <v>7558.792968942207</v>
       </c>
       <c r="S10">
-        <v>0.08680211058376103</v>
+        <v>0.08953788713201005</v>
       </c>
       <c r="T10">
-        <v>0.08680211058376103</v>
+        <v>0.08953788713201004</v>
       </c>
     </row>
   </sheetData>
